--- a/results/figs/model_simulation/Omicron20/params_transformed_Omicron20.xlsx
+++ b/results/figs/model_simulation/Omicron20/params_transformed_Omicron20.xlsx
@@ -488,7 +488,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E2">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F2">
         <v>0.2163870967741936</v>
@@ -503,7 +503,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J2">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K2">
         <v>0.289516129032258</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>309.4199193548387</v>
+        <v>286.4578870967741</v>
       </c>
       <c r="B3">
         <v>2.973387096774193</v>
@@ -563,7 +563,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E3">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F3">
         <v>0.2163870967741936</v>
@@ -578,7 +578,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J3">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K3">
         <v>0.289516129032258</v>
@@ -633,7 +633,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E4">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F4">
         <v>0.2163870967741936</v>
@@ -648,7 +648,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J4">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K4">
         <v>0.289516129032258</v>
@@ -708,7 +708,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E5">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F5">
         <v>0.2163870967741936</v>
@@ -723,7 +723,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J5">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K5">
         <v>0.289516129032258</v>
@@ -778,7 +778,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E6">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F6">
         <v>0.2163870967741936</v>
@@ -793,7 +793,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J6">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K6">
         <v>0.289516129032258</v>
@@ -853,7 +853,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E7">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F7">
         <v>0.2163870967741936</v>
@@ -868,7 +868,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J7">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K7">
         <v>0.289516129032258</v>
@@ -928,7 +928,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E8">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F8">
         <v>0.2163870967741936</v>
@@ -943,7 +943,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J8">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K8">
         <v>0.289516129032258</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>401.2680483870967</v>
+        <v>470.1541451612903</v>
       </c>
       <c r="B9">
         <v>2.973387096774193</v>
@@ -1003,7 +1003,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E9">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F9">
         <v>0.2163870967741936</v>
@@ -1018,7 +1018,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J9">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K9">
         <v>0.289516129032258</v>
@@ -1078,7 +1078,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E10">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F10">
         <v>0.2163870967741936</v>
@@ -1093,7 +1093,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J10">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K10">
         <v>0.289516129032258</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>355.3439838709677</v>
+        <v>378.3060161290322</v>
       </c>
       <c r="B11">
         <v>2.973387096774193</v>
@@ -1153,7 +1153,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E11">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F11">
         <v>0.2163870967741936</v>
@@ -1168,7 +1168,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J11">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K11">
         <v>0.289516129032258</v>
@@ -1228,7 +1228,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E12">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F12">
         <v>0.2163870967741936</v>
@@ -1243,7 +1243,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J12">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K12">
         <v>0.289516129032258</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>355.3439838709677</v>
+        <v>194.6097580645161</v>
       </c>
       <c r="B13">
         <v>2.973387096774193</v>
@@ -1298,7 +1298,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E13">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F13">
         <v>0.2163870967741936</v>
@@ -1313,7 +1313,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J13">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K13">
         <v>0.289516129032258</v>
@@ -1373,7 +1373,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E14">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F14">
         <v>0.2163870967741936</v>
@@ -1388,7 +1388,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J14">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K14">
         <v>0.289516129032258</v>
@@ -1448,7 +1448,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E15">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F15">
         <v>0.2163870967741936</v>
@@ -1463,7 +1463,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J15">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K15">
         <v>0.289516129032258</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>240.5338225806452</v>
+        <v>263.4958548387096</v>
       </c>
       <c r="B16">
         <v>2.973387096774193</v>
@@ -1523,7 +1523,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E16">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F16">
         <v>0.2163870967741936</v>
@@ -1538,7 +1538,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J16">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K16">
         <v>0.289516129032258</v>
@@ -1598,7 +1598,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E17">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F17">
         <v>0.2163870967741936</v>
@@ -1613,7 +1613,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J17">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K17">
         <v>0.289516129032258</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>125.7236612903226</v>
+        <v>194.6097580645161</v>
       </c>
       <c r="B18">
         <v>2.973387096774193</v>
@@ -1673,7 +1673,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E18">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F18">
         <v>0.2163870967741936</v>
@@ -1688,7 +1688,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J18">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K18">
         <v>0.289516129032258</v>
@@ -1748,7 +1748,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E19">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F19">
         <v>0.2163870967741936</v>
@@ -1763,7 +1763,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J19">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K19">
         <v>0.289516129032258</v>
@@ -1823,7 +1823,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E20">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F20">
         <v>0.2163870967741936</v>
@@ -1838,7 +1838,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J20">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K20">
         <v>0.289516129032258</v>
@@ -1898,7 +1898,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E21">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F21">
         <v>0.2163870967741936</v>
@@ -1913,7 +1913,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J21">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K21">
         <v>0.289516129032258</v>
@@ -1968,7 +1968,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E22">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F22">
         <v>0.2163870967741936</v>
@@ -1983,7 +1983,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J22">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K22">
         <v>0.289516129032258</v>
@@ -2043,7 +2043,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E23">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F23">
         <v>0.2163870967741936</v>
@@ -2058,7 +2058,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J23">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K23">
         <v>0.289516129032258</v>
@@ -2118,7 +2118,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E24">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F24">
         <v>0.2163870967741936</v>
@@ -2133,7 +2133,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J24">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K24">
         <v>0.289516129032258</v>
@@ -2188,7 +2188,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E25">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F25">
         <v>0.2163870967741936</v>
@@ -2203,7 +2203,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J25">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K25">
         <v>0.289516129032258</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>355.3439838709677</v>
+        <v>401.2680483870967</v>
       </c>
       <c r="B26">
         <v>2.973387096774193</v>
@@ -2263,7 +2263,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E26">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F26">
         <v>0.2163870967741936</v>
@@ -2278,7 +2278,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J26">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K26">
         <v>0.289516129032258</v>
@@ -2333,7 +2333,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E27">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F27">
         <v>0.2163870967741936</v>
@@ -2348,7 +2348,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J27">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K27">
         <v>0.289516129032258</v>
@@ -2408,7 +2408,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E28">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F28">
         <v>0.2163870967741936</v>
@@ -2423,7 +2423,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J28">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K28">
         <v>0.289516129032258</v>
@@ -2483,7 +2483,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E29">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F29">
         <v>0.2163870967741936</v>
@@ -2498,7 +2498,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J29">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K29">
         <v>0.289516129032258</v>
@@ -2558,7 +2558,7 @@
         <v>1.321129032258064</v>
       </c>
       <c r="E30">
-        <v>99.45625610948191</v>
+        <v>97.12520364939719</v>
       </c>
       <c r="F30">
         <v>0.2163870967741936</v>
@@ -2573,7 +2573,7 @@
         <v>0.03935483870967742</v>
       </c>
       <c r="J30">
-        <v>0.7859011523137905</v>
+        <v>0.4998387096774194</v>
       </c>
       <c r="K30">
         <v>0.289516129032258</v>
